--- a/biology/Botanique/Phytophthora_cryptogea/Phytophthora_cryptogea.xlsx
+++ b/biology/Botanique/Phytophthora_cryptogea/Phytophthora_cryptogea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phytophthora cryptogea est une espèce d'oomycètephytopathogène de la  famille des Peronosporaceae.
 Cet organisme est un  parasite obligatoire des plantes et provoque chez de nombreuses espèces végétales des symptômes de fonte des semis et de pourriture des racines (pourridié phytophthoréen) et des tiges.
-C'est en particulier l'un des agents de la pourriture rose de la pomme de terre[1].
+C'est en particulier l'un des agents de la pourriture rose de la pomme de terre.
 </t>
         </is>
       </c>
